--- a/Incentive_COM/result/Nguyễn Thị Bảo Trân.xlsx
+++ b/Incentive_COM/result/Nguyễn Thị Bảo Trân.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="77">
   <si>
     <t>KAM/KAE (Full name)</t>
   </si>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">Nguyễn Tuấn Minh </t>
   </si>
   <si>
+    <t>Đặng Hồng Đào</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Lan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị Yến Nhi </t>
+  </si>
+  <si>
+    <t>Hoàng Văn Sao</t>
+  </si>
+  <si>
     <t>Võ Thị Thanh Thúy</t>
   </si>
   <si>
-    <t>Nguyễn Thị Hồng Lan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Thị Yến Nhi </t>
-  </si>
-  <si>
-    <t>Hoàng Văn Sao</t>
-  </si>
-  <si>
-    <t>Tôn Vũ Anh Thư</t>
-  </si>
-  <si>
-    <t>Cao Khanh Huyền</t>
+    <t>Ngô Diệu Linh</t>
   </si>
   <si>
     <t>LVN ACD</t>
   </si>
   <si>
+    <t>KARMART</t>
+  </si>
+  <si>
     <t>UI MASS</t>
   </si>
   <si>
-    <t>AMORE PACIFIC</t>
-  </si>
-  <si>
-    <t>KARMART</t>
+    <t>JOHNSON &amp; JOHNSON</t>
   </si>
   <si>
     <t>LA ROCHE-POSAY - TIKI</t>
@@ -113,37 +113,40 @@
     <t>SKIN CEUTICALS - LAZADA</t>
   </si>
   <si>
+    <t>SKIN CEUTICALS - SHOPEE</t>
+  </si>
+  <si>
+    <t>KARMARTS - SHOPEE</t>
+  </si>
+  <si>
+    <t>KARMARTS - LAZADA</t>
+  </si>
+  <si>
+    <t>KARMART - TIKI</t>
+  </si>
+  <si>
+    <t>VICHY - TIKI</t>
+  </si>
+  <si>
+    <t>UI - SHOPEE</t>
+  </si>
+  <si>
     <t>UI - LAZADA</t>
   </si>
   <si>
-    <t>SKIN CEUTICALS - SHOPEE</t>
-  </si>
-  <si>
-    <t>VICHY - TIKI</t>
-  </si>
-  <si>
-    <t>UI - SHOPEE</t>
-  </si>
-  <si>
     <t>UI - TIKI</t>
   </si>
   <si>
     <t>UI - SENDO</t>
   </si>
   <si>
-    <t>MISE EN SCENE - SHOPEE</t>
-  </si>
-  <si>
-    <t>MISE EN SCENE - LAZADA</t>
-  </si>
-  <si>
-    <t>KARMARTS - SHOPEE</t>
-  </si>
-  <si>
-    <t>KARMARTS - LAZADA</t>
-  </si>
-  <si>
-    <t>KARMART - TIKI</t>
+    <t>JOHNSON &amp; JOHNSON - TIKI</t>
+  </si>
+  <si>
+    <t>JOHNSON &amp; JOHNSON - LAZADA</t>
+  </si>
+  <si>
+    <t>JOHNSON &amp; JOHNSON - SHOPEE</t>
   </si>
   <si>
     <t>B2C</t>
@@ -155,79 +158,79 @@
     <t>Nguyễn Thị Bảo Trân</t>
   </si>
   <si>
-    <t xml:space="preserve">Trần Thị Tường Vân </t>
+    <t>Đoàn Nguyễn Dạ Dương</t>
+  </si>
+  <si>
+    <t>Trần Minh Duy</t>
   </si>
   <si>
     <t>0.00%</t>
   </si>
   <si>
-    <t>102.94%</t>
-  </si>
-  <si>
-    <t>81.41%</t>
-  </si>
-  <si>
-    <t>166.90%</t>
-  </si>
-  <si>
-    <t>88.47%</t>
-  </si>
-  <si>
-    <t>51.50%</t>
-  </si>
-  <si>
-    <t>108.12%</t>
-  </si>
-  <si>
-    <t>34.42%</t>
-  </si>
-  <si>
-    <t>51.25%</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>34.58%</t>
-  </si>
-  <si>
-    <t>22.02%</t>
-  </si>
-  <si>
-    <t>52.62%</t>
-  </si>
-  <si>
-    <t>32.79%</t>
-  </si>
-  <si>
-    <t>124.94%</t>
-  </si>
-  <si>
-    <t>40.98%</t>
-  </si>
-  <si>
-    <t>9.59%</t>
-  </si>
-  <si>
-    <t>84.32%</t>
-  </si>
-  <si>
-    <t>96.29%</t>
-  </si>
-  <si>
-    <t>192.76%</t>
-  </si>
-  <si>
-    <t>46.39%</t>
-  </si>
-  <si>
-    <t>96.80%</t>
-  </si>
-  <si>
-    <t>37.09%</t>
-  </si>
-  <si>
-    <t>5.68%</t>
+    <t>45.76%</t>
+  </si>
+  <si>
+    <t>70.16%</t>
+  </si>
+  <si>
+    <t>49.05%</t>
+  </si>
+  <si>
+    <t>149.51%</t>
+  </si>
+  <si>
+    <t>79.20%</t>
+  </si>
+  <si>
+    <t>57.00%</t>
+  </si>
+  <si>
+    <t>53.59%</t>
+  </si>
+  <si>
+    <t>31.71%</t>
+  </si>
+  <si>
+    <t>50.18%</t>
+  </si>
+  <si>
+    <t>117.69%</t>
+  </si>
+  <si>
+    <t>44.41%</t>
+  </si>
+  <si>
+    <t>100.00%</t>
+  </si>
+  <si>
+    <t>61.17%</t>
+  </si>
+  <si>
+    <t>20.47%</t>
+  </si>
+  <si>
+    <t>33.80%</t>
+  </si>
+  <si>
+    <t>31.18%</t>
+  </si>
+  <si>
+    <t>37.70%</t>
+  </si>
+  <si>
+    <t>53.35%</t>
+  </si>
+  <si>
+    <t>1017.06%</t>
+  </si>
+  <si>
+    <t>-3.58%</t>
+  </si>
+  <si>
+    <t>832.50%</t>
+  </si>
+  <si>
+    <t>78.36%</t>
   </si>
   <si>
     <t>Name</t>
@@ -236,19 +239,13 @@
     <t>Incentive</t>
   </si>
   <si>
-    <t>72.18%</t>
-  </si>
-  <si>
-    <t>66.90%</t>
-  </si>
-  <si>
-    <t>70.72%</t>
-  </si>
-  <si>
-    <t>20.00%</t>
-  </si>
-  <si>
-    <t>5.00%</t>
+    <t>47.46%</t>
+  </si>
+  <si>
+    <t>47.06%</t>
+  </si>
+  <si>
+    <t>502.09%</t>
   </si>
 </sst>
 </file>
@@ -627,7 +624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -703,13 +700,13 @@
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -718,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2">
-        <v>133816</v>
+        <v>60720</v>
       </c>
       <c r="K2" s="2">
-        <v>130000</v>
+        <v>132685</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -736,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P2" s="2">
-        <v>8403.6448</v>
+        <v>4311.12</v>
       </c>
       <c r="Q2" s="2">
-        <v>8163.999999999999</v>
+        <v>9420.634999999998</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -762,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -777,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J3" s="3">
-        <v>133816</v>
+        <v>60720</v>
       </c>
       <c r="K3" s="3">
-        <v>130000</v>
+        <v>132685</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M3" s="3">
         <v>0</v>
@@ -795,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P3" s="3">
-        <v>8403.6448</v>
+        <v>4311.12</v>
       </c>
       <c r="Q3" s="3">
-        <v>8163.999999999999</v>
+        <v>9420.634999999998</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -821,169 +818,169 @@
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="2">
+        <v>56306</v>
+      </c>
+      <c r="K4" s="2">
+        <v>80258</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="2">
+        <v>3997.726</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>5698.317999999999</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="3">
+        <v>56306</v>
+      </c>
+      <c r="K5" s="3">
+        <v>80258</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="3">
+        <v>3997.726</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>5698.317999999999</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="2">
-        <v>81412</v>
-      </c>
-      <c r="K4" s="2">
-        <v>100000</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="2">
-        <v>5112.673599999999</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>6279.999999999999</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="2">
-        <v>15021</v>
-      </c>
-      <c r="K5" s="2">
-        <v>8999.999999999989</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="2">
-        <v>2208.087</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>1322.999999999998</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="3">
-        <v>96433</v>
-      </c>
-      <c r="K6" s="3">
-        <v>109000</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="3">
-        <v>7320.7606</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>7602.999999999997</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S6" s="3" t="s">
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="2">
+        <v>30105</v>
+      </c>
+      <c r="K6" s="2">
+        <v>61373</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2137.455</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>4357.482999999999</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -992,137 +989,137 @@
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3737</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2499.5</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="2">
+        <v>250.379</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>167.4665</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="2">
-        <v>51497</v>
-      </c>
-      <c r="K7" s="2">
-        <v>100000</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="2">
-        <v>3234.0116</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>6279.999999999999</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="3">
-        <v>51497</v>
-      </c>
-      <c r="K8" s="3">
-        <v>100000</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="3">
-        <v>3234.0116</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>6279.999999999999</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>66</v>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1188</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="2">
+        <v>79.596</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>100.5</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1131,16 +1128,16 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J9" s="2">
-        <v>32435</v>
+        <v>57</v>
       </c>
       <c r="K9" s="2">
-        <v>30000</v>
+        <v>100.0000000000001</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -1149,33 +1146,33 @@
         <v>0</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P9" s="2">
-        <v>2036.918</v>
+        <v>3.819</v>
       </c>
       <c r="Q9" s="2">
-        <v>1884</v>
+        <v>6.700000000000005</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -1190,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J10" s="3">
-        <v>32435</v>
+        <v>35087</v>
       </c>
       <c r="K10" s="3">
-        <v>30000</v>
+        <v>65472.5</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -1208,137 +1205,137 @@
         <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P10" s="3">
-        <v>2036.918</v>
+        <v>2471.249</v>
       </c>
       <c r="Q10" s="3">
-        <v>1884</v>
+        <v>4632.149499999999</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="2">
+        <v>15580</v>
+      </c>
+      <c r="K11" s="2">
+        <v>49133</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1106.18</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>3488.443</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="2">
-        <v>27054</v>
-      </c>
-      <c r="K11" s="2">
-        <v>78601.99999999993</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P11" s="2">
-        <v>3976.938</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>11554.49399999999</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="2">
-        <v>390</v>
-      </c>
-      <c r="K12" s="2">
-        <v>760.9999999999997</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P12" s="2">
-        <v>57.33</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>111.8669999999999</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>67</v>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="3">
+        <v>15580</v>
+      </c>
+      <c r="K12" s="3">
+        <v>49133</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1106.18</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>3488.443</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1346,137 +1343,137 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="2">
+        <v>17056</v>
+      </c>
+      <c r="K13" s="2">
+        <v>33991</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" s="2">
+        <v>3138.304000000001</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>6254.344000000001</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="2">
-        <v>12</v>
-      </c>
-      <c r="K13" s="2">
-        <v>32.99999999999973</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P13" s="2">
-        <v>1.764</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>4.85099999999996</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="3">
-        <v>27456</v>
-      </c>
-      <c r="K14" s="3">
-        <v>79395.99999999993</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P14" s="3">
-        <v>4036.032</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>11671.21199999999</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>67</v>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="2">
+        <v>8335</v>
+      </c>
+      <c r="K14" s="2">
+        <v>7082</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1533.64</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1303.088</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -1485,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J15" s="2">
-        <v>6960</v>
+        <v>755</v>
       </c>
       <c r="K15" s="2">
-        <v>31611</v>
+        <v>1700</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -1503,39 +1500,39 @@
         <v>0</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P15" s="2">
-        <v>556.8000000000001</v>
+        <v>138.92</v>
       </c>
       <c r="Q15" s="2">
-        <v>2528.88</v>
+        <v>312.8000000000001</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -1544,16 +1541,16 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J16" s="2">
-        <v>9033</v>
+        <v>19</v>
       </c>
       <c r="K16" s="2">
-        <v>17167</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -1562,33 +1559,33 @@
         <v>0</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P16" s="2">
-        <v>722.64</v>
+        <v>3.496</v>
       </c>
       <c r="Q16" s="2">
-        <v>1373.36</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1603,16 +1600,16 @@
         <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J17" s="3">
-        <v>15993</v>
+        <v>26165</v>
       </c>
       <c r="K17" s="3">
-        <v>48778</v>
+        <v>42773</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1621,39 +1618,39 @@
         <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P17" s="3">
-        <v>1279.44</v>
+        <v>4814.360000000001</v>
       </c>
       <c r="Q17" s="3">
-        <v>3902.24</v>
+        <v>7870.232000000001</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -1662,16 +1659,16 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J18" s="2">
-        <v>6718</v>
+        <v>3238</v>
       </c>
       <c r="K18" s="2">
-        <v>5377</v>
+        <v>15814.99999999999</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -1680,196 +1677,255 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P18" s="2">
-        <v>450.1060000000001</v>
+        <v>378.846</v>
       </c>
       <c r="Q18" s="2">
-        <v>360.259</v>
+        <v>1850.354999999999</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="2">
+        <v>21768</v>
+      </c>
+      <c r="K19" s="2">
+        <v>64394.99999999965</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="2">
+        <v>2546.856</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>7534.214999999959</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="3">
+        <v>25006</v>
+      </c>
+      <c r="K20" s="3">
+        <v>80209.99999999965</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" s="3">
+        <v>2925.702</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>9384.569999999958</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="2">
+        <v>19559</v>
+      </c>
+      <c r="K21" s="2">
+        <v>51884.00000000001</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P21" s="2">
+        <v>2288.403</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>6070.428000000001</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1667</v>
-      </c>
-      <c r="K19" s="2">
-        <v>4068</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P19" s="2">
-        <v>111.689</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>272.556</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="2">
-        <v>54</v>
-      </c>
-      <c r="K20" s="2">
-        <v>563</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P20" s="2">
-        <v>3.618</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>37.721</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" s="3">
-        <v>8439</v>
-      </c>
-      <c r="K21" s="3">
-        <v>10008</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P21" s="3">
-        <v>565.4130000000001</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>670.5360000000001</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>70</v>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="3">
+        <v>19559</v>
+      </c>
+      <c r="K22" s="3">
+        <v>51884.00000000001</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" s="3">
+        <v>2288.403</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>6070.428000000001</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1887,7 +1943,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -1929,7 +1985,7 @@
         <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1940,31 +1996,31 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>133816</v>
+        <v>60720</v>
       </c>
       <c r="F2" s="2">
-        <v>130000</v>
+        <v>132685</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2">
-        <v>8403.6448</v>
+        <v>4311.12</v>
       </c>
       <c r="L2" s="2">
-        <v>8163.999999999999</v>
+        <v>9420.634999999998</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1975,10 +2031,10 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <v>96433</v>
+        <v>56306</v>
       </c>
       <c r="F3" s="2">
-        <v>109000</v>
+        <v>80258</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>51</v>
@@ -1987,19 +2043,19 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2">
-        <v>7320.7606</v>
+        <v>3997.726</v>
       </c>
       <c r="L3" s="2">
-        <v>7602.999999999997</v>
+        <v>5698.317999999999</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>68</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2010,31 +2066,31 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
-        <v>51497</v>
+        <v>35087</v>
       </c>
       <c r="F4" s="2">
-        <v>100000</v>
+        <v>65472.5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2">
-        <v>3234.0116</v>
+        <v>2471.249</v>
       </c>
       <c r="L4" s="2">
-        <v>6279.999999999999</v>
+        <v>4632.149499999999</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2045,31 +2101,31 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <v>32435</v>
+        <v>15580</v>
       </c>
       <c r="F5" s="2">
-        <v>30000</v>
+        <v>49133</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2">
-        <v>2036.918</v>
+        <v>1106.18</v>
       </c>
       <c r="L5" s="2">
-        <v>1884</v>
+        <v>3488.443</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2080,31 +2136,31 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
-        <v>27456</v>
+        <v>26165</v>
       </c>
       <c r="F6" s="2">
-        <v>79395.99999999993</v>
+        <v>42773</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
-        <v>4036.032</v>
+        <v>4814.360000000001</v>
       </c>
       <c r="L6" s="2">
-        <v>11671.21199999999</v>
+        <v>7870.232000000001</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2115,31 +2171,31 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
-        <v>15993</v>
+        <v>25006</v>
       </c>
       <c r="F7" s="2">
-        <v>48778</v>
+        <v>80209.99999999965</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2">
-        <v>1279.44</v>
+        <v>2925.702</v>
       </c>
       <c r="L7" s="2">
-        <v>3902.24</v>
+        <v>9384.569999999958</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2150,66 +2206,66 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
-        <v>8439</v>
+        <v>19559</v>
       </c>
       <c r="F8" s="2">
-        <v>10008</v>
+        <v>51884.00000000001</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2">
-        <v>565.4130000000001</v>
+        <v>2288.403</v>
       </c>
       <c r="L8" s="2">
-        <v>670.5360000000001</v>
+        <v>6070.428000000001</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
-        <v>366069</v>
+        <v>238423</v>
       </c>
       <c r="F9" s="4">
-        <v>507181.9999999999</v>
+        <v>502415.4999999997</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4">
-        <v>26876.22</v>
+        <v>21914.74</v>
       </c>
       <c r="L9" s="4">
-        <v>40174.98799999998</v>
+        <v>46564.77549999995</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
